--- a/output/Total_time_range_data/辽宁省/丹东市_学习考察.xlsx
+++ b/output/Total_time_range_data/辽宁省/丹东市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,318 +436,350 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>39</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>市人大十六届二次会议第号关于加强养老机构建设的建议的答复</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2020-4-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.dandong.gov.cn/html/DDSZF/202004/0164163197479721.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['市人大十六届二次会议第1079号《关于加强养老机构建设的建议》的答复-市人大代表建议答复-丹东市人民政府', '目前，我市共有养老机构134家，床位近万张，其中由社会力量举办的有86家，主要面向普通市民提供全日照料服务。民办机构的收费标准由机构依据设施情况、老人身体状况和市场反馈自行确定，普遍在1000元——4000元之间，基本符合我市居民的收入水平，可以满足不同阶层老年人的需求。2017年以来，我市持续开展了“养老院服务质量建设专项行动”，所有养老机构的服务质量均得到不同程度的提升，机构达标率由最初的不足30%逐步提升到2018年底的70%左右。2019年，国家颁布了《养老机构等级划分与评定》(GB-T37276-2018)国家标准，市民政局将依据上级工作部署适时开展养老机构评级工作。', '市民政局和市卫健委积极推动“养老和医疗相结合”工作的开展，支持床位200张以上并符合医疗机构设施审批条件的养老机构申请开办老年病医院、康复医院、护理院、中医医院、临终关怀机构等;支持床位在200张以下的养老机构内设医务室或护理站，为老年人提供优质便捷的医疗服务。对无条件设置医疗机构、医务室或护理站的养老机构，与就近的医疗机构进行签约服务，为入住老年人建立健康档案，提供健康管理和健康指导，开辟就医绿色通道，目前养老机构签约率已达80%以上。', '居家和社区养老是养老服务体系的基础与核心，直接关系到绝大多数老年人的生活质量，也是国家积极倡导的养老服务发展方向。今年市民政局党组确定以创新推进养老服务体系建设为主线，以争取国家养老服务改革试点为重点，完善以居家为基础，社区为依托，机构为补充，医养相结合的养老服务体系建设。为此，新增预算862.5万元，主要用于积极支持相关设施建设，购买第三方服务开展老年人能力评估，探索建立全市养老服务综合管理信息平台等。3月份，市民政局专门赴沈阳、盘锦、辽阳等省内已获得资助的试点城市，对居家和社区养老服务工作进行学习和考察;5月19日—24日，由市民政局局长于辉带队，市民政局相关人员及各县(市)区民政局主要领导一行13人，赴江苏省扬州、南京、苏州三地就养老服务工作特别是居家社区养老工作进行了专项学习考察。市民政局将在吸收借鉴外地先进经验的基础上，着手代市政府起草推进全市居家和社区养老服务发展的指导性文件，包括居住区(社区)养老服务设施配建、志愿服务机制、支持社会力量参与的扶持政策和“医养结合”等重点内容。届时，老人在自家门口接受“长期入住”、“短期入住”、“钟点入住”、“上门服务”将成为现实，可以逐步满足老年人多层次的养老需求。', '市教育局对发挥职业教育优势，参与养老事业人才培养和技能培训十分重视。根据我市老年事业发展需要，在丹东中医药学校开设的护理专业中，开办了面向社区和老年人康复需要的专业方向，加大相关技能培训。下一步，市民政局将会同市教育局加大对职业学校在康复医养等方面的师资、设施的支持力度，引导职业学校等依托现有的相近专业和办学优势，积极开展面向老年人康复护理需求的技能培训，与社区、医疗、养老机构联合，共同开展相关从业人员的培训。', '2014年以来，我市先后设立了民办非营利性养老机构运营补贴、养老机构综合责任保险补贴、养老护理员岗位补贴等多项针对社会力量兴办养老机构的优惠扶持政策，社会力量参与养老服务的积极性不断提高，近两年每年新增民办养老机构10家以上，床位1000张左右。2019年，市民政局还将研究出台民办养老机构建设补贴、护理型床位运营补贴政策，进一步加大扶持力度。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>39</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>省政协十二届二次会议关于加快我市旅游住宿业健康发展的建议第号的答复</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2019-7-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.dandong.gov.cn/html/DDSZF/201907/0164162831873965.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['省政协十二届二次会议《关于加快我市旅游住宿业健康发展的建议》（第0084号）的答复-省政协十二届二次会议2019年-丹东市人民政府', '省政协十二届二次会议《关于加快我市 旅游住宿业健康发展的建议》（第0084号）的答复', '近年来，我市紧密围绕“放管服”改革，通过开辟旅游市场主体准入“绿色通道”、优化简化企业网上登记程序、实施减税降费优惠政策等多种措施，鼓励和扶持各类市场主体积极参与旅游住宿业经营，旅游住宿业总量特别是经济型、民宿型住宿产品数量逐年提高，但仍难以满足旅游旺季旅丹游客的住宿需求。以2019年“五一”小长假为例，我市重点监测的星级酒店假日高峰时段床位出租率均为100%。而高峰时段过后，床位出租率立即回落，市区星级酒店为40%左右、县方星级酒店为30%左右。由此可见，除高峰时段以外我市旅游住宿总量完全能够满足游客住宿需求。', '为了促进我市旅游住宿业发展供需平衡，加快推进旅游住宿业供给侧改革,以科学的政策引导产业健康发展,目前，我们正在研究启用旅游大数据监测平台相关事宜，用于科学分析研判客源分布、消费能力和住宿需求等要素，从而引导市场均衡发展一批不同形式、不同档次、不同规模和不同文化主题的旅游住宿设施，切实满足不同层次游客的住宿需求。力争于今年十一前正式应用该平台。', '多年来，我市已发展了一批以温泉休闲度假为主题的旅游娱乐住宿综合体设施，如宗裕温泉度假区、北黄海温泉度假区、天沐温泉等，有效提升了我市旅游住宿综合体的规模和品质。而国际化的知名高端型旅游娱乐住宿综合体项目却仍是我市旅游住宿的短板，尽管我们一直在积极的招商引资，但效果甚微。原因是丹东属四线类城市，本地市民高端消费水平不足，并且旅游业淡旺季分明，在全国住宿行业市场利润微薄的大环境下，知名、高端品牌商看不到可观的效益，没有投资意向。', '当前，我们正在全力推进本土现有的旅游住宿项目的转型升级，打造我们自有知名品牌。一是宗裕城温泉度假区启动实施了整体改造和提质升级工程，市文化旅游广电局已邀请旅游专家对其进行实地建设指导，计划于今年6月底完工并争创国家4A级旅游景区，力争打造集游览观光、餐饮娱乐和休闲度假于一体的中高端旅游住宿综合体。二是北黄海温泉度假区正在积极筹备二、三期建设工程，拟建设温泉馆、全国最大的室内造浪馆、会议中心、客房、餐厅、室外戏水区、海洋水族馆等功能区以及一座以医疗、康复、养老为主体的综合性服务中心。目前，项目正在调规阶段，力争年底前开工，三年内完工。项目建成后，将成为我市地域特色鲜明、住宿容量充足、休闲内容丰富的大型温泉度假区。', '近年来，在市场需求的推动下，我市日租房、农家乐、民宿数量和规模急剧扩张。为了促进其高品质发展，我市出台了《乡村旅游发展专项规划(2018-2030)》、《沟域旅游发展专项规划(2018-2030)》，将旅游住宿业纳入乡村旅游业全局统筹规划，为乡村旅游住宿的特色化、差异化发展提供了重要参考。旅游部门还曾多次组织县区有关部门、重点乡镇村领导分批赴浙江、江苏、山东、葫芦岛等地学习考察，了解先进地区民宿旅游发展的经验，成效显著，打造出61家星级农家乐和13家精品民宿，在乡村地区形成了以景区为依托，并辐射周边的农家乐聚集区，基本满足了游客乡村旅游的住宿需求。', '由于日租房、农家乐经济起步早、发展快，管理缺乏配套的规范性文件，造成了现阶段建筑隐患、消防隐患、治安隐患等问题大量积压。从管理的角度来说，日租房、农家乐、民宿经营模式就是一种以日租、小时房等方式提供床位或房间进行住宿的经营行为，依据《辽宁省旅馆业治安管理工作规范》的要求，均应纳入宾馆旅店管理。但现实情况是许多经营实体没有任何法律手续，擅自经营，处于监管盲区，致使其内部住宿的大量人员不在公安机关的掌控范围之内，存在巨大安全隐患。而在公安机关查处有关违法行为时又难以避免被地方经济建设保护等因素制约，无法实现有效管理。因此，我们在鼓励群众充分利用自有资源大力发展农家客栈和家庭旅馆的过程中陷入了两难局面。这也侧面反映出我市日租房、农家乐和民宿管理制度缺失的问题。', '今年，我们将结合地区实际把日租房、农家乐和民宿的规范化管理事宜提上工作议程，组织公安、市场监管、旅游等部门协同合作，从全局层面破解监管难题、拟定地方性管理办法。在有法可依的前提下鼓励群众依法利用自有资源建设和经营旅游住宿，进一步引导已有农家客栈和家庭旅馆加大投入、优化提升，使我市日租房、农家乐和民宿经济走上规范化经营、高品质发展的轨道。', '众所周知，“携程网”、“途家网”、“去哪儿网”等大型旅游住宿电子平台已发展的非常成熟，市场占有率很高。据统计，我市所有3星级以上酒店目前均已与这类旅游APP平台建立合作，并实现了在线服务、网络营销、网上预订、网上支付。其他非星级住宿单位的上线率也达到90%以上。', '一直以来，我市高度重视“智慧旅游”发展，积极探索“互联网+旅游”发展模式。今年4月，我市全新上线了“丹东旅游微信小程序”和官方资讯网站，用于全面开展线上旅游营销，这是我们探索培育“旅游+APP”的一次有益尝试。2019年，我们将逐步扩展和完善线上营销内容，积极为APP和旅游企业牵线搭桥，促进双方的互动合作，实现能够为游客提供我市特色的线上旅游服务目标。我们还要加强对已开通自建网站旅游企业的在线检查工作，指导和规范网站管理，保障平台服务质量。此外，我们将尝试运用旅游大数据平台做好来丹过夜游客数量、游客客源地和消费水平等大数据分析，为旅游住宿资源的有效整合和高效利用提供数据支撑。', '目前，我市旅游住宿业特别是民宿业的发展存在许多不足。一是发展无序。我市尚未就民宿发展出台相关规划，没有对民宿及相关旅游配套产品、设施等进行统筹设计和布局，民宿经济处于自我发展状态。二是管理粗放。我市的民宿经营管理缺乏制度约束，内部管理较为传统，设施设备陈旧缺乏维护，服务水平低，整体环境无法满足游客需求。三是资金短缺。民宿旅游是乡村旅游中的精品，基础设施投资大，由于我市乡村旅游经营存在半年闲，造成投资回收期长，回报率低，民宿旅游项目的改扩建和更新改造得不到及时跟进，发展的后劲严重不足。四是发展受限。民宿旅游项目建设有时需要大量用地，目前在用地数量、政策倾斜和价格优惠及土地流转租赁上都受到一定限制，客观上造成民宿旅游难以做大。', '上述问题，已经引起我们旅游部门的关注，但已草拟的丹东市民宿管理办法和扶持政策等有关文件受机构改革等外部因素影响而搁置。今年，我们将重新启动相关工作，加大对旅游住宿业特别是民宿经济的研究。一是探索和推进民宿旅游管理体制机制的建立，研究金融部门支持民宿旅游发展的政策措施，解决资金短板问题。二是开展民宿旅游评先活动，鼓励民宿企业创品牌，打造精品。三是举办培训班，对民宿的从业人员进行服务技能培训，安全培训，接待礼仪培训，经营管理培训，提高民宿从业人员整体素质和服务水平。四是广泛开展宣传引导，以百万微信群、入户走访、普法教育等形式，向旅游住宿业主宣贯依法经营的重要性、必要性，在保持传统乡村风貌的同时，为游客提供卫生、安全、优质的服务。此外，要积极探索适度放活宅基地使用权，严格禁止利用宅基地建设别墅大院和私人会馆，引导农民在法律允许范围内利用好闲置农房和宅基地发展民宿。', '对于您提出的关于假日旅游住宿价格过高的问题暂时难以解决。因为，目前住宿业收费实行市场调节价管理，不在政府定价范围内，经营者有自主定价权，可根据市场供需状况、质量差异、地理位置、环境状况等因素自行确定价格。住宿单位根据《关于商品和服务实行明码标价的规定》(8号令)必须对住宿费实行明码标价，根据《禁止价格欺诈行为的规定》(15号令)不得有价格欺诈行为，根据《反不正当竞争法》规定不得有法律规定的不正当竞争行为。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>39</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>市政协十五届二次会议第号关于加大蓝莓产业种植结构调整和扶持力度的建议的答复</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2020-5-11</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.dandong.gov.cn/html/DDSZF/202005/0164163194579287.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['市政协十五届二次会议第1-34号《关于加大蓝莓产业种植结构调整和扶持力度的建议》的答复-市政协提案答复-丹东市人民政府', '市政协十五届二次会议第1-34号《关于加大蓝莓产业 种植结构调整和扶持力度的建议》的答复', '我市自1998年引入蓝莓试栽并获得成功后，我市依托独具的区位优势、良好的生态优势和丰富的资源优势，坚持突出特色，不断优化调整种植业产业结构，大力发展蓝莓产业，取得了比较明显的成效。但是蓝莓作为我市新兴的特色产业，随着生产规模的不断扩大，诸如品种、栽培方式、配套技术等方面的问题也逐渐显现，制约了蓝莓产业的发展。为有效解决这些问题，推进我市蓝莓产业的健康持续发展，重点做了以下工作。', '一、加大政策扶持。积极争取国家和省级相关项目资金，扩大资金来源渠道，支持蓝莓产业发展。一是各地充分利用国家乡村振兴项目资金，支持村集体发展蓝莓产业;二是充分利用种植结构调整资金，支持发展设施蓝莓生产。对2018年在耕地上新建并保证长期稳定使用的，集中连片设施内面积5亩以上(含5亩)的日光温室、钢架冷棚小区，按实际测量的面积折标给予补贴。温室小区每亩补贴6586元，冷棚小区每亩补贴1646元，全市共补贴温室小区4275.7亩，冷棚小区3348.72亩，补贴资金3367.18万元。', '二、强化科研保障。一是开展蓝莓种质资源收集、选育和栽培技术研究工作。目前全市已建立蓝莓资源圃2处，引进、收集蓝莓品种资源近30份，并对蓝莓的品种特性、配套栽培管理技术等进行研究，为不断优化调整蓝莓品种提供依据。二是总结、归纳、提升现有栽培管理技术模式，为发展蓝莓产业提供技术服务支撑。', '三、加强技术培训服务。一是通过新型职业农民培育工程，加强科技实用人才的培养，开展有针对性的技术培训和指导服务，解决生产问题，提高农民生产技术水平，适应蓝莓产业发展的需要。二是通过“请进来”，聘请专家进行实地指导;通过“走出去”，组织农户进行考察学习，切实解决生产中存在的问题。', '四、发挥协会和新型经营主体作用。一是充分发挥丹东市蓝莓协会的组织协调作用，适时地组织协调生产、销售和市场开发，促进生产基地间的联合发展，增强市场竞争能力，促进蓝莓产业的健康发展。二是鼓励和支持农民组建各类专业合作组织和家庭农场，规范运作行为，提高农民生产经营的组织化程度，不断提升农民参与市场竞争的能力和水平。积极培育小浆果种植、加工、销售等主营单一或混合型龙头企业，通过“企业+基地+农户”、“企业+合作社+农户”等经营模式，带动农民稳步发展蓝莓产业。三是培育建设示范基地，发挥基地的先导、示范和辐射作用，示范引导蓝莓产业发展。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>39</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市人大十六届一次会议第号关于加快东港市运动户外服装产业集群发展的建议的答复</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2019-8-6</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.dandong.gov.cn/html/DDSZF/201908/0164163197479561.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['市人大十六届一次会议第188号《关于加快东港市运动户外服装产业集群发展的建议》的答复-市人大代表建议答复-丹东市人民政府', '市人大十六届一次会议第188号 《关于加快东港市运动户外服装产业集群发展的建议》的答复', '为推动产业发展，东港市成立了以市长任组长，分管副市长任副组长，经信、发改、人社、财政等相关部门为成员单位的运动户外服装产业发展领导小组，负责全市纺织服装产业发展的组织领导、统筹规划、综合协调、宏观管理等工作，为服装产业发展提供有力的组织保障。', '市政府委托中纺联纺织服装规划设计院、辽宁省纺织服装协会制定专项发展规划，为产业发展确定工作方向、思路和目标。', '先后成立东港市纺织服装协会与辽宁省运动户外服装产业联盟，搭建政府与企业沟通的桥梁，通过定期召开座谈会、走访调研、考察学习等形式，凝聚共识、汇聚力量，形成行业互补、项目互动、资源共享、多赢发展的良好局面。', '东港市拥有较为成熟的电商服务基地、物流产业园。2016年，前阳镇与辽东学院纺织服装学院签署战略合作协议，共同建设“户外服装开放式设计平台、户外服装面料研发平台、户外服装检测中心、户外服装大学生创新创业基地、户外服装产业大数据平台”五大公共服务平台，深化“政、产、学、研”合作，补齐品牌建设、产业链完善、人才培养等短板。', '大孤山纺织服装产业园拥有8万平方米的标准化厂房和1.4万平方米的配套服务区，实施完善、功能齐全，是专业化的服装园区。2017年被辽宁省纺织服装协会评为“辽宁省运动户外服装特色产业园区”。', '前阳镇作为我市运动户外服装产业的核心区，服装产业基础雄厚，目前正在推进建设1.2平方公里的前阳运动户外服装产业园，园区总体规划已完成，打造集服装设计、研发、生产、贸易、包装、物流、网络信息、职业教育培训和咨询服务等为一体的综合性产业集聚区，建成后将进一步提高我市纺织服装项目承载能力。', '注重发挥龙头企业的示范牵引和辐射带动作用，依托新龙泰服装、河珍制衣、大田户外、日升制衣等重点企业，吸引高端客户、拉伸产业链条、扩大市场份额，助推“名城”发展。其中，丹东市新龙泰实业有限公司与斯凯奇、阿迪达斯等知名品牌进行合作，逐步成为其重要的生产基地，产品销往美国、日本、韩国及欧洲等国家和地区。2017年，成功将斯凯奇研发中心迁入东港，打造总部经济，当年实现销售收入2.24亿元，同比增长67.7%。', '引导企业由单纯的来料加工向设计加工、柔性化生产转变，并逐步过渡到打造自主品牌，实施品牌化运营和品牌化发展。重点培育顺成服装、河珍制衣、日升制衣等企业发展自主品牌。力争到2020年，规模产值比2017年翻一番。', '东港市政府先后制定出台了《东港市扶持工业企业发展办法》、《东港市扶持运动户外服装产业发展暂行办法》等政策措施，从项目建设、技术升级、土地价格、资金扶持等方面为产业发展提供政策保障。', '总投资8000万元的“金亿纶新型材料(东港)有限公司项目”已建成投运,目前处于试生产状态，主要生产高科技新型超纤维材料，可为服装生产提供高品质原料，达产后可实现年产量500吨，产值1.5亿元，实现税收2000万元,为我市运动户外服装行业注入新的活力。', '一是组织企业到江苏、浙江等发达省份考察学习，与当地纺织服装上下游企业开展项目对接、产业链对接和园区对接等系列活动;二是组织企业参加大连服博会、哈尔滨时装周等展会，通过展会营销，擦亮叫响“中国运动户外服装名城”名片，进一步提升我市运动户外服装产业集群的品牌知名度和美誉度。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>39</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>市政协十四届五次会议第号关于科学定义教育强市有序推进教育强市建设的提案的答复</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2018-5-2</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.dandong.gov.cn/html/DDSZF/201805/0164163194578265.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['市政协十四届五次会议第2-01号《关于科学定义教育强市，有序推进教育强市建设的提案》的答复-市政协提案答复-丹东市人民政府', '市政协十四届五次会议第2-01号 《关于科学定义教育强市，有序推进教育 强市建设的提案》的答复', '收到提案后，市教育局高度重视，主要领导组织召开了专题会议，研究提案中所提出的问题，并结合我市教育工作实际，进行了认真的讨论。', '目前，对教育强市的定义是指某个地区或城市教育发展、办学质量全面提高的一个标志。具体来说：第一、教育强市首先要有先进的教育思想和办学理念。随着社会的不断改革发展，社会对人才规格质量的要求不断提高，教育不仅要出“好产品”，而且还要多出“精品”。第二，教育强市要有良好的育人环境和现代化的教学设备。良好的育人环境和现代化的教学手段是培养人才、出好人才的前提条件，是教育的基础工程。第三，教育强市必须有数量足、学科配套、业务过硬的教师队伍。目前我市的中小学，特别市山区中小学仍存在教师数量不足、学科不配套，教学水平不高的现象。尤其是山区农村初中、小学体育、艺术、健康教育的教师出现较大的缺额。第四、教育强市必须是均衡发展的教育。所谓均衡发展的教育就是城区、农村中小学教育要均衡发展;普通、职业教育均衡发展;教育教学质量全面提高，办学品位全面提升。第五、教育强市必须实现教育管理的现代化。管理是生产力，提高管理水平是现代经济社会发展的一个重要因素。教育也是如此，没有教育管理的现代化，就难以实现教育的高投入、高产出，也难有教育的高质量和高效益。第六、教育强市必须有教育的高质量。质量问题始终是办教育的归宿点和落脚点。教育质量的高低，培养人才数量的多少、水平如何，始终是衡量教育质量高低的一个重要标准。', '我市虽然在《丹东市中长期教育改革和发展规划纲要》中提出了七个方面的目标，但随着经济社会的发展，我市已经把衡量教育发展的指标提升到教育强市所涉及的项目。', '标准化学校建设是推进教育强市建设重要抓手，几年来，我市有计划、按比例全力推进义务教育阶段学校标准化建设。目前，我市已经完成标准化学校建设398所，占学校总数的78%，按时完成阶段规划的目标。', '下一步我市继续将标准化学校建设作为当前和今后一个时期教育重点工作来抓，把义务教育学校标准化建设与学校布局调整、农村寄宿制学校建设和薄弱校改造工作相结合，按照《丹东市教育局关于进一步加强义务教育学校标准化建设的通知》(丹教〔2013〕81号)所确定的规划时间表的要求，有计划、按比例继续全力推进标准化学校建设，并明确年度建设任务，制定具体工作进度推进表，确定达标学校，明确责任部门和具体责任人，到2020年，全部完成标准化学校建设任务，并通过省和国家义务教育均衡发展的验收工作。对已经实现办学条件标准化的地区，要把学校建设重点放在巩固和提高上，切实办好每一所学校，实现高质量的义务教育均衡发展。', '在推进过程中，我市严格按照国家规定的要求，着重从生均教学及辅助用房面积、生均体育运动场馆面积、生均教学仪器设备值、每百名学生拥有计算机台数、生均图书册数、职生比、生均高于规定学历教师数、生均中级及以上专业技术职务教师数等八个方面，切实加强义务教育学校标准化建设，确保每所学校的以上指标达到国家义务教育均衡发展校际间差异系数控制在小学≤0.65、初中≤0.55的要求和省定建设标准，从而保证所有的义务教育学校教学设施、仪器设备、图书资料等资源配置基本均衡。在实施普通中小学标准化建设过程中，我市还进一步完善科学合理的义务教育教学质量监测评估体系和教学指导体系，加强对教研活动、教师备课、课堂教学等教学管理工作的指导、评估、检查。充分发挥名校作用，探索推行组建教育集团、托管等运行模式，大力开展“名师带徒”和“结对帮扶”等培训活动，以软件的改革与创新促均衡、促发展，使农村及城镇薄弱学校教育质量、管理水平显著提升，使区域内中小学生基本享有同等的学习生活条件，实现区域内城乡教育基本公共服务均等化。', '义务教育均衡发展是实现教育强市的关键环节，为此几年来，各县(市)区严格按照省市规划的要求，有计划、分步骤推进区域义务教育均衡发展。截止到目前，东港市、凤城市、振兴区、元宝区和合作区已经顺利通过省和国家义务教育发展基本均衡县(市、区)验收。', '为进一步加快推进我市义务教育均衡发展的工作进程，结合宽甸县和振安区的工作实际，我市制定了《丹东市义务教育发展基本均衡县(市、区)建设规划(2016-2018年)》。2016年振安区启动申报程序，2017年下半年接受省正式验收，2018年通过国家评估验收。 2017年宽甸县启动申报程序，下半年接受省审核评估;2018年上半年接受省正式验收，下半年通过国家评估验收。目前振安区、宽甸县正通过统筹资源、提升质量、保障公平、调整结构、改善条件、深化改革等举措全力推进义务教育均衡发展工作，确保按规定的时限完成验收工作任务。对于已经通过义务教育均衡发展评估验收的东港市、凤城市、振兴、元宝区和合作区，已按照要求开展义务教育均衡发展监测和复查工作。并把学校建设重点放在区域内学校高质量均衡发展上，切实办好每一所学校，实现市域内高质量的义务教育进衡发展。', '各级政府把教育作为财政支出重点领域予以优先保障，根据各类教育事业的不同特点和发展改革实际需要以及财力可能，合理确定并适时提高相关拨款标准和投入水平。继续把义务教育全面纳入公共财政保障范围，建立城乡统一、重在农村的义务教育经费保障机制。非义务教育实行以政府投入为主、受教育者合理分担、其他多种渠道筹措经费的投入机制。鼓励社会资本加大教育投入力度。健全预算绩效管理机制，加强绩效评价结果应用，确保教育经费发挥最大效益。继续实施学校内部控制制度，加强内部审计，强化审计结果运用。加大学校财务信息公开力度，主动接受社会监督。加强国有资产管理，规范资产处置行为，提高资产使用效率。', '加快实施教育扶贫工程，对接农村贫困人口建档立卡数据库，提高教育扶贫精准度，让贫困家庭子女都能接受公平有质量的教育，阻断贫困代际传递。加大教师培训专项经费投入,多年以来各级党委和政府十分重视教育的发展，积极落实学前教育、义务教育、高中教育、职业教育等各项政策，不断加大投入，2016年全市教育支出31个亿，比2015年增长28个亿，增长了11% 。同时，落实教育公用经费5%用于校本培训，促进教师岗位成长。实施高端培训计划，定期组织优秀教师、校长到知名学校、境外机构学习考察。', '2016年，国家教育部印发了《依法治教实施纲要(2016-2020年)》，提出总体目标为：到2020年，形成系统完备、层次合理、科学规范、运行有效的教育法律制度体系，形成政府依法行政、学校依法办学、教师依法执教、社会依法评价、支持和监督教育发展的教育法治实施机制和监督体系。青少年学生法治教育体系健全完备，教育部门领导干部、校长、教师法律素质与依法办事能力显著提升，在全社会尊法守法的进程中发挥表率和模范带头作用。为全面提升教师的法制素养，促进广大教师依法执教，2014年，丹东市教育局下发了《丹东市中小学教师全员法制培训三年工作方案》，每年市教育局培训骨干教师、校长1000多人，各学校也聘请了法制副校长，积极开展模拟法庭、情景剧、知识竞赛、网络大赛等形式的法制教育，开展防拐骗、防灾害等实际演练，提高师生尊法守法意识和自我保护能力。2015年，我市启动了制定完善学校章程工作，为推动依法治校提供依据，促进学校领导依法管理、教师依法执教、学生依法诉求等工作的发展。截止2016年底，全市基本形成了一校一章程的格局，有效地加快了依法治教进程。继续坚持依法控辍、管理控辍、教改控辍、扶贫控辍的总体思路，动员和组织学校、社会、家庭等各方面力量，齐抓共管，常抓不懈，采取多种有力措施，使我市农村初中辍学率呈逐年下降的趋势，控制在省定的范围之内。市及各县(市、区)教育督导部门继续把义务教育学校标准化建设和义务教育均衡发展作为重要的督导内容，纳入督导评估指标体系，做好学校标准化和义务教育均衡发展建设监控和督导评估工作。将义务教育学校标准化建设和义务教育均衡发展情况，作为对政府、教育行政部门工作考核的指标之一。同时积极探索引入第三方评估方式，多角度、全方位监督教育，不断提升百姓对我市义务教育均衡发展的满意度。', '随着经济社会的发展，人口的流动性逐渐加大，有更多的农村人口涌向城市，随之而来的是随迁子女逐渐增多，学龄儿童也从农村涌向城市，造成农村空置校舍逐渐增加，因而从上世纪80年代起，在全国范围内启动了学校整合资源、调整结构、科学规划、合理布局工作。我市也对学校的调整布局做了大量的工作，撤并一些条件差、学生少的农村小学，改善了学生的就读环境，同时因地制宜地开展了新学校的建设，配备了更多的现代教育教学设备和设施。近几年，我市在学校规划建设中主要做了以下工作。', '一是立足实际，科学规划。着眼未来持续发展，优先考虑学校规划和建设，国土部门预留学校建设用地;规划、建设、交通、环保等部门在学校项目选址中充分考虑环境、交通等因素，确保学校项目选址科学、合理。二是积极配合，加强协作。教育部门要主动与规划、国土和建设等部门对接，形成协调配合机制，确保学校项目的规划和建设顺利推进。三是组织考察，学习经验。考察学习外地在学校规划、建设和管理等方面的经验和做法，结合我市实际，因地制宜地开展学校布局、规划和建设工作。四是加强宣传，扩大影响。加大对学校建设项目编制、布局和规划的宣传力度，多渠道、多层次为学校布局和建设营造良好氛围，让广大群众支持和关注学校规划和建设。', '目前，我市教师编制管理是按照国家、省有关文件要求核定到各个学校，县域内学校教师编制由省编办核准，市编办统一管理，市辖区及市直学校编制由市编办统一管理，在编制总量范围内可沟通协商调剂。在职称评聘方面，我市教师职称工作由市人社部门负责，教育部门协同，学校进行评聘推荐。自2015年开始，在全地区按照“试点先行、灵活多样、政策支撑、平稳进行”的原则，开展不同形式的校长教师交流轮岗工作，在一定程度上促进了义务教育的均衡发展。', '围绕推动校企合作培养人才，提高职业教育服务产业的能力和水平，我市积极推进职业教育供给侧结构性改革，坚持创新发展，履行职业教育为地方经济社会发展的职责，加快构建现代职业教育体系，促进职业教育转型发展、优化发展、高效发展。一是推动职业教育集团化建设，组建覆盖我市重点产业和行业的职业教育集团。以国家级示范校丹东职专、丹东民族学校为核心，组建丹东市现代制造业中职集团和丹东市现代服务业中职集团。二是推进中高职业院校紧密衔接。支持我市中职学校与区域内高等职业教育院校在课程资源、人才培养、实训基地、双师型教师培养、信息交流等方面统筹与衔接，拓宽技术技能人才成长通道。三是创新校企合作培养人才方式。国家级、省级示范校每校至少要建立1-2个专业技能大师工作室;拓展委培、订单等多种方式培养渠道，为地方骨干产业和规模企业订单式培养比例达到50%。四是加快教学模式和学生实习实训改革。完善弹性学习制度，为全日制学生半工半读、工学交替、分阶段完成学业等创造条件。创新“互联网+职业教育”新理念，有计划推进 “互联网+技能”、“互联网+校企合作”等改革试点。分类组织实施学生认识实习、跟岗实习和顶岗实习。五是创新“双师型”教师队伍培养。专业教师每年有不少于50学时到企业开展生产锻炼，了解企业或行业新技术、新工艺、新设备，促进教师更新观念，改进教学方法。积极引进和聘请企业或行业能工巧匠担任专业教师或实习指导者，鼓励企业技术、管理人员参与专业教学和技能培训。组织好每年的“百名教师进企业，百名师傅进校园”活动。六是推动传统专业转型升级，培育发展新专业方向。落实我市“六大战略”，围绕临港产业发展和我市产业结构调整优化，推动职业教育教学改革与产业转型升级衔接配套，适应经济社会对技术技能人才结构、规格和质量的要求，引领专业设置向新技术、新设备、新行业方向发展。将积极探索在新能源汽车、智能仪器仪表、满族医药及健康产业、养生及美容业等产业的专业人才培养;围绕农产品精深加工产业发展，积极开设电子商务+现代农业的人才培养;推进旅游职业教育与我市服务业、现代农业等产业的对接，与国内知名旅游高校合作，创新我市职业院校旅游人才培养模式。七是畅通职业教育与终身教育和社区教育渠道。实行开门办学，开放学校公共资源，发挥公益性，推动职业教育与终身教育、社区教育融通，做好面向社会的职业培训。每所职业学校至少要开设1个设在社区的职业技能培训站;每年至少举办1次面向社会的职业教育宣传和学生职业技能展示活动。八是通过捆绑帮扶等形式推进优质教育资源共享。近几年，我市通过开展名校办分校、百校帮村小、建立名师助教联盟等活动，不断扩大名校、名师的覆盖面，有力地推进了优质教育资源共享。', '几年来，以创建义务教育发展基本均衡县(市)区和辽宁省中小学图书馆(室)示范校评估为契机，不断加大资金投入，教育信息化基础建设得到很大提高。图书馆、心理咨询室、数字化地理教室、理化生实验室、计算机教室、阅览室、卫生室、多媒体教室、录播教室等数量大幅提升。目前我市学生用计算机保有量达到2.08万台，生机比接近9.3:1。多媒体设备4600余套，“多媒体班班通”数占总体班级数的百分比为76.4%。其中市直学校541个班级、振兴区321个班级及元宝区146个班级全部实现班班通，东港市、凤城市也将基本实现班班通。435所学校接通宽带互联网，占学校总数的76%。', '先后印发了《丹东市中小学信息技术教育先进校评估细则》、《教育信息化设备管理方案》、《丹东市学校网络安全管理制度》等文件，进一步规范并完善了我市教育信息化制度和管理体系建设。根据《辽宁省中小学学校信息化建设标准(试行)》制定出台了《关于加快丹东市教育信息化“三通两平台”建设的实施意见》，意见中规定：2016年底前，各县(市)区宽带网络“校校通”覆盖率达到65%以上，多媒体优质资源“班班通”覆盖率达到60%以上，教师网络学习空间“人人通”覆盖率达到50%以上。', '近几年，我市积极开展优秀教师评选活动，通过评选“三尺讲台最美人”、“五星班主任”、“师德标兵”、“丹东好人最美教师”等，发掘教师们的先进事迹，充分发挥报纸、电台、网络等媒体的传播作用广泛宣传，以典型引路，推动师德师风建设，树立教育良好形象。大力宣传农村改薄成果，优化农村学生学习生活环境。今后，将统筹各级各类媒体进一步加强教育请示的宣传，全面发掘我市教育事业取得的成就，尤其要加大对我市教育事业发展作出贡献的引进人才和本地人才，为我市教育事业健康稳步发展营造良好的舆论环境。加大教育政策的宣传力度，多方位、多家度、多层次宣传我市关于加快发展现代教育政策部署、推进教育现代化和学习型社会建设的政策措施，准确及时解读重大教育政策和文件，便于公众及时获取权威信息、了解政策，让广大人民群众了解教育、理解教育、支持教育、关心教育，享受教育发展成果。进一步加强学校、教师、学生先进事迹的报道，展示学校发展成果，讲述学生成长中的良师益友，提升学校、教师的知名度，发挥典型的辐射作用。加强教育宣传队伍的建设，在原有的信息员队伍的基础上，进一步加强网评员的队伍建设，利用论坛、贴吧、微博、微信等媒体阵地，引导舆情向正面发展，全方位宣传我市教育强市的成果。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>39</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>丹东市人民政府关于丹东市法治政府建设年进展情况的报告</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2019-3-27</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.dandong.gov.cn/html/DDSZF/201903/0164162814530521.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['丹东市人民政府关于丹东市法治政府建设2018年进展情况的报告-各类报告-丹东市人民政府', '2018年，在省委、省政府和市委的正确领导下，丹东市政府坚持以习近平新时代中国特色社会主义思想为指导,全面贯彻落实党的十九大精神,紧紧围绕加快法治政府建设的目标，以贯彻落实《法治政府建设实施纲要(2015—2020年)》(以下简称《纲要》)和省委、省政府《辽宁省法治政府建设实施方案(2016-2020年)》为主线,较好地完成了法治政府建设全年各项工作任务。', '1.落实年度报告。按照《纲要》要求,向省政府、市委和市人大常委会书面报告2017年度全市法治政府建设工作情况,并在市政府网站公开。', '2.加强工作部署。以市政府办公室名义印发了《关于2018年全市法治政府建设工作要点的通知》，明确了年度法治政府建设总体要求和重点工作，细化了相关单位依法行政的工作重点及节点。', '3.强化督查考核。结合全市依法行政工作实际，制定了2018年度各县(市)区、市直部门领导班子和领导干部工作实绩“依法行政”考核指标，明确了考核内容、标准和时限。2018年11月起，对全市落实依法行政工作情况开展实绩考核。', '1.建设“互联网+政务服务”，扎实推进“五个一工程”。按照“一套标准、一个流程、一个窗口、一张网、一批项目”的要求，将市、县(市)区行政审批标准与全省对接，形成省市县三级统一的审批服务标准化体系，完成了市县一体化网上审批平台开发建设，实现了在线预约、在线受理、在线办理、在线反馈。', '2.开展专项整治，建立常态化机制。一是开展“纠四风”专项整治，制发《“纠四风”优化营商环境专项整治行动方案》。二是全力开展“办事难”问题专项整治，出台了《丹东市开展“办事难”问题专项整治工作方案》。三是开展政务服务窗口“烦心事”问题排查整治。', '1.为了增强政府立法的针对性和有效性，4月初，以市政府办公室名义出台《丹东市人民政府2018年立法计划》(丹政办发〔2018〕16号)。4月上旬，按照立法计划安排，明确了《丹东市城市除雪管理规定》(草案)立法时间节点，并函告市住建委。经审查，原市住建委提出，《丹东市城市除雪管理规定》拟增设的收费条款及其他管理措施缺乏上位法依据，因此及时中止了立法起草工作。', '2.开展电梯安全监督管理和城乡规划方面的立法调研工作，并对相关法规草案进行合法性审查。', '3.针对热点领域，广泛征求2019年地方性法规(草案)、政府规章以及规范性文件立法计划意见，印发《关于征集市政府规章立法项目建议的函》(丹政法发〔2018〕14号)，拟出台市政府规章立法计划(2019-2023)。因机构改革部门职能未定，各部门均表示暂缓上报市政府规章立法项目建议。', '1.加强各类文件的合法性审查。全年共审查市政府及省法制办交办的各类文件116件。其中《丹东市户外广告设施招牌设置管理暂行规定》等规范性文件12件;《辽宁省城市供水用水管理办法》、《关于丹东市燃气总公司改制意见》等征求意见66件;《关于举行丹东市人民政府与沈阳航空航天大学科技合作签约仪式活动的通知》等法律事务13件;政协委员建议提案2件;其他事项23件。', '2.积极履行对规范性文件的审查监督职责。针对丹东化工机械有限公司关于退休人员医疗保险金问题进行申诉，召集市人力资源和社会保障局医保中心相关负责人对征收退休人员医疗保险金问题进行了专题研究论证;若干残疾人就残代车被扣问题向我办咨询，我办认真听取当事人意见，对相关规范性文件进行审查，积极协调市残联予以解决。联合市物价局赴振安区开展公平竞争审查制度落实情况调研督导。随市宗教事务局赴浙江等地进行宗教事务方面的考察学习。', '3.开展规范性文件专项清理工作。印发《市政府法制办关于&lt;开展涉及军民融合、产权保护、新动能的规范性文件专项清理工作方案&gt;的通知》(丹政法发〔2018〕3号)、《市政府法制办关于开展证明事项的规范性文件专项清理工作方案的通知》(丹政法发〔2018〕8号)，清理结果已上报省法制办;向市政府提交《市法制办关于做好生态环境保护地方性法规和规范性文件全面清理工作的报告》(丹政法〔2018〕39号);以市政府名义印发《丹东市人民政府关于废止&lt;丹东市著名商标认定和保护办法&gt;的通知》(丹政发〔2018〕23号)。', '2.以丹东市全面推进依法行政工作领导小组办公室的名义印发《关于开展规范涉企处罚检查整治活动的通知》，整治企业“办事难”问题，规范涉企处罚，对相关部门实行先告知、后处罚，对存在自由裁量权的处罚事项，在处罚后一个月内进行内部复核，确保处罚公正合理等方面制定和完善相关制度情况进行了督促和检查。', '3.全面提高行政执法人员的业务素质和执法能力。市政府加强了法制培训经费保障力度，2018年起将全地区行政执法人员培训经费纳入市财政预算予以保障。全年先后组织全市1074名行政执法人员进行了法律法规知识培训和考试，进一步提高了行政执法人员运用法律知识解决实际问题的能力，强化了行政执法人员的执法岗位的责任意识。', '2.积极做好行政应诉工作。2018年，以市政府为被告的行政案件共21件，上年结转19件，现各级法院正在审理中。出庭应诉50余次，均按照复议机关和人民法院的要求，及时提交答辩和相关证据材料。', '3.在案件审理过程中，召开行政复议听证会1次，深入宽甸、凤城等土地、林地现场核查26次，较好地发挥了行政复议层级监督作用。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>39</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>市政协十四届四次会议第号关于发展乡土旅游打造绿色低碳休闲产业的提案的答复</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2017-3-1</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.dandong.gov.cn/html/DDSZF/201703/0164163194578059.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['市政协十四届四次会议第1-74号《关于发展乡土旅游 打造绿色低碳休闲产业的提案》的答复-市政协提案答复-丹东市人民政府', '市政协十四届四次会议第1-74号《关于发展乡土旅游 打造绿色低碳休闲产业的提案》的答复', '您们提出的《关于发展乡土旅游打造绿色低碳安全应急信息化建设的提案》收悉，现答复如下：', '丹东市乡村旅游资源丰富，乡村旅游工作一直以来都是旅游工作的重中之重，提案中所提出的建议对乡村旅游发展有重大指导意义，围绕提案中建议丹东市重点做好以下工作：', '丹东的旅游资源占地面积1500平方公里，占全市国土面积的10%。境内江、河、湖、海、山、泉、林、岛、湿地俱全。红色旅游、温泉旅游、沟域旅游、乡村旅游、江岸旅游、海岸旅游、边境旅游独树一帜。丹东市乡村旅游主要依托城市及龙头景区、交通干线，构建一圈四带一片区空间格局。其中，依托丹东市、凤城街道、东港市区，建设乡村休闲旅游圈。依托鸭绿江、虎山、天华山、凤凰山、青山沟等龙头景区，建设乡村旅休闲体验带/圈。依托五条交通/风景廊道，建设乡村旅游带。沿江主题乡村旅游带依托鸭绿江黄金旅游带，结合沿江村镇情况，向腹地延伸，与农、林、果、渔各产业相结合，重点开发满族风情、朝鲜族风情、边城风情、鸭绿江渔家、桃乡人家、关东人家等主题旅游集镇，突出集镇特色，成为具有特色旅游接待功能的、主题鲜明的社会主义新农村，实现乡村旅游带动农村经济发展。主要村镇：九连城、太平湾、长甸、拉古哨、浑江口。北部特色农业乡村旅游带依托沈丹高速，以中草药、水果、花卉等特色农业为产业基础，通过旅游产业的纽带作用引导农业经济结构的优化，拓宽农产品的外销渠道，带动北部农业经济的整体发展。主要村镇：大梨树、陶李村等。南部休闲渔业乡村旅游带以沿海的渔业为依托，发展休闲渔业、休闲渔村等旅游形式，与大鹿岛、獐岛、大孤山等重要旅游景区、景点深度联动，共同支撑丹东市的南部休闲海岸旅游带。形成与大连的时尚海洋相差异的海洋旅游产品体系。主要村镇：小岛、獐岛。满族民俗旅游带开展以民族风情、乡土民俗为特色的农家接待。主要村镇：永甸、青椅山。东北山乡旅游体验区依托天华山、天桥沟、青山沟、蒲石河等核心山岳型景区，以景区为观光游览、休闲体验核心，以周边乡村为重要的综合接待服务区，形成景村联动的发展模式。主要村镇：青山沟、灌水、赛马等。', '(一)编制旅游专项规划。按照省政府、省旅游局有关各市必须编制三项旅游工作专项规划的要求。在温泉旅游专项规划获得省评审通过的基础上，完成报请市政府审议、批准、实施的文稿起草、汇报、发布实施等各项前期工作。目前，编制《丹东市沟域旅游专项规划》和《丹东市乡村旅游专项规划》正在编制过程中。', '(二)开展省级星级农家乐创建活动。根据辽宁省地方标准《农家乐等级的划分与评定》(DB21/T 1440—2006)的相关规定，2015年对凤城市旅游局申报的御圣泉宾馆、乾汤沐谷等10家农家乐进行了资料审查和实地考察。经综合评定，上述10家农家乐分别获得不同星级的省级农家乐称号。2016年锦海宾馆、草木味道生态酒店为辽宁省三星级农家乐，玖玖家庭农场、竹福山庄、韩家大院为辽宁省二星级农家乐。', '(三)在旅游产品开发上研究特色、挖掘特色、突出特色。做到你无我有，你有我精，用“特色”招牌树立起农业旅游良好形象。所有的建设项目要与农业旅游内涵相一致，突出“农”字，不能贪大求洋，追求豪华。', '(四)全面提升服务质量，提升服务。根据省里出台的农家乐旅游行业服务标准，通过企业升级和评选评选活动，建立完善的服务标准，规范已开业的农家乐，加大行业监管力度，提升服务，提高企业的竞争能力，提升产品的品质。农业旅游要与小城镇建设结合起来，打造一个景区、达到富一方百姓、兴一方经济、改造一方面貌的目的。做大宽甸、大梨树乡村旅游示范县(点)的模范带头作用，从而推动丹东旅游快速、健康、有序发展。', '(五)做好产品宣传推广和从业人员培训工作。将乡村旅游产品纳入年度宣传计划;制作宣传手册和光盘;分别在国际、国内主流媒体和地方电台、电视台定期宣传。同时组织各乡镇以及农家乐代表学习考察，汲取经验，开阔眼界。', '下一步，我们将创新经营管理模式，计划将通过建立农家乐合作社的方式，通过对我市农家乐进行摸底考察，包装整合现有农家乐，着重对农家乐已初具规模的地区分批次的开展农家乐聚集区试点工作，对现有的农家乐进行统一改造提升，同时，打造包装符合地方特色的乡村旅游产品，提高乡村接待水平。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>39</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市政协十四届五次会议第号关于大力发展我市乡村生态旅游产业的提案的答复</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2018-2-1</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.dandong.gov.cn/html/DDSZF/201802/0164163194578243.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['市政协十四届五次会议第1-50号《关于大力发展我市乡村生态旅游产业的提案》的答复-市政协提案答复-丹东市人民政府', '市政协十四届五次会议第1-50号 《关于大力发展我市乡村生态旅游产业的提案》的答复', '为全面贯彻落实《国务院关于加快发展旅游业的意见》，强化旅游领导小组的职能作用，统筹和协调解决我市旅游业发展中的重大问题。丹东市计划以“赴朝旅游聚集区”和“温泉旅游聚集区”建设为切入点，以打造边境旅游、温泉旅游品牌为目标，以鸭绿江精品旅游带为依托，重点培育以大梨树村、河口村、宽甸县为代表的乡村休闲游和以抗馆、断桥、大鹿岛为代表的红色游，不断丰富我市旅游产业的特色和内涵，加快产品的转型升级，发挥旅游业的综合带动效应，使其成为我市经济新的增长点。加快推进旅游酒店、商业网点、景区的建设，提高接待能力;积极开发富有地方特色的传统食品和旅游商品，满足游客“吃、住、行、游、购、娱”等方面的需要。加强对未开发景区的规划编制工作，发挥好其生态优势。', '在《丹东市旅游整体规划》和《鸭绿江风景名胜区总体规划》中，把挖掘和利用文化资源作为了一个重要内容加以体现。依据丹东市旅游整体规划，丹东市乡村旅游共分为环城乡村游带、沿江乡村游带，滨海乡村旅游带、东部沟域乡村旅游区、北部山地乡村旅游区五大部分。', '其中，环城乡村游带主要是指环城郊区地区。结合自然资源情况，目前主要是采取农业休闲旅游为主，温泉旅游为辅的旅游模式。对于农业休闲旅游着重挖掘乡土文化，突出“农”字，充分挖掘农村特色，展示农耕文化;让旅游者不仅体验山水，更能感受到农家的淳朴、热情和温馨。如《在水一方农家乐》、《安达蒙古风情园》、《绿水源垂钓区》。环城郊区金山镇和汤池镇具有温泉资源优势，温泉旅游发展已经初具规模。', '沿江乡村游带以河口、绿江地区为重点，在乡村田园风光景观和农耕文化景观突出的地方开展生态型农业观光体验游，让游客参与采摘互动，精心打造以河口村燕红桃种植采摘、北部山区枫叶摄影、绿江村油菜花观赏等为特色的精品乡村旅游项目，进一步丰富了乡村旅游内容。', '滨海乡村旅游带推出览江海风光、观湿地候鸟、品特色海鲜、沿岸垂钓、滩涂采摘、赶海拾贝等旅游产品。更好地塑造了丹东滨海乡村旅游，为乡村旅游发展增添了新的形式与载体。目前，以海边渔家、獐岛、大鹿岛为代表的休闲渔家乐正在不断进步完善，朝着集群化发展。', '东部沟域乡村旅游区、北部山地乡村旅游区传承并弘扬满族文化遗产。打造乡村采摘体验、民俗风情为内容的旅游产品。大兴镇利用辽宁省山野菜示范基地的优势，积极进行乡村旅游项目的包装与开发。沙里寨镇以开发石湖沟为重点，积极邀请辽东学院专家为石湖沟做规划，同时做好石湖沟生态度假景区开发建设项目的包装与招商。石城镇依托爱河丰富的水资源和火山玄武岩资源，积极推进爱河旅游及鸿运谷漂流项目。', '此外，以宽甸的农民画、凤城石材画、石城文学社等为代表的满族乡土文化，通过积极搭建乡土文化、社区文化平台，把这些具有代表性的满族乡土文化资源打造成具有浓郁特色的乡土旅游品牌。此外，丹东的满族歌舞已具有了品牌优势。其中最有代表性的有《东陲边鼓》和《八旗山水遥》。', '为了进一步规范行业管理，丹东市旅发委通过开展旅游系统诚信体系建设活动，对导游员、领队、旅行社进行诚信体系档案管理，采取定性评价与定量分析相结合、专业评价与公众评价相结合的方法，科学、客观地评价旅游服务质量状况，完善旅游企业的退出机制。并对旅游从业人员深入开展职业培训，选拔一批高素质的导游员，培养一批高素质的旅游职业经理人，使他们成为旅游业发展的中坚力量。此外，制定完善了各类旅游安全应急预案，建立覆盖旅游行业、与相关部门联动的安全预警机制;建立健全旅游保险制度，完善旅行社责任险和旅游投诉机制，确保游客人身和财产安全。', '为促进丹东市精品民宿发展，市旅游委于2017年初组织各地区旅游局委和旅游企业赴江浙地区进行了精品民宿学习考察，随后对丹东市现有特色小镇、精品民宿、旅游+产品、近郊游产品进行梳理并建立资料库。下一步丹东市将联合高校对丹东市民宿发展情况进行总结分析，制定民宿规划。同时做好与各行业的衔接工作，制定民宿行业规范，以用来完善民宿经营方式，同时提高经营效率。', '1、重点加强鸭绿江生态保护。2016年丹东市政府印发了《关于印发丹东市污水防治工作方案的通知》(〔丹政发〕24号)明确提出深化引用水源保护，保障群众饮水安全。强化引用水源地规范化建设，对集中式引用水源地实施水源隔离，综合整治，生态修复三大工程。加强引用水源地风险防范，消除水源安全隐患。每年对集中式引用水源上游区，影响环境状况开展普查，建立水源水质安全风险源档案，建立水源上游，左右岸环境保护及供水厂处全过程联防联控应急机制。2015年我市按照省政府“关于引用水源保护区范围确定”的要求，我市开展了城市集中式引用水源保护范围确定工作，编写了工作报告，形成了相应的点之记、地形图集和坐标等技术资料。并于2016年通过了省环保厅组织集中式饮水源保护区勘界论证会。', '2、注重空气环境建设，加强空气污染防治工作。2017年我市环保工作目标中空气目标是：环境空气优良天数率不低于84.7%，PM2.5浓度均值不高于42μg/m3。确保空气质量达到省政府要求，对此一是实施高效一体化供热。全市拆除10吨及以下燃煤锅炉182台;加强锅炉执法检查，严控新建、上大压小，推广清洁燃烧技术，推进宽甸“一县一热源”建设。二是加强重点工业源监管。严格在线监控，严格依法查处，积极争取资金，对重点项目进行彻底整改。三是深化扬尘整治。强化蓝天工作领导小组牵头抓总作用，明确建筑工地、管线施工、堆场、城市道路、交通运输等扬尘污染责任分工，加强联合执法，提高城市精细化管理水平。四是加强秸秆禁烧管控。落实网格化监管责任，加强重点区域巡检力度，严格落实省政府禁烧责任追究规定。五是加强机动车防控。淘汰环保车及老旧车辆7837辆，推广清洁能源和新能源公交，做好绿标区划定，完成加油站油汽回收工作。六是积极应对重污染天气。将重污染天气应急工作纳入各级政府即有关部门突发事件应急管理体系，健全应急报告值班制度，继续推进雾霾预警体系建设和重污染天气预警预报，推动型成重污染天气应急合作机制。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>39</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>市政协十四届三次会议第号关于打造丹东夜市经济的提案的答复</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2016-2-5</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.dandong.gov.cn/html/DDSZF/201602/0164163194577683.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['市政协十四届三次会议第1-44号《关于打造丹东夜市经济的提案》的答复-市政协提案答复-丹东市人民政府', '市委、市政府始终重视推动夜经济发展工作。2013年下发了《关于发展夜经济实施方案的通知》(丹政办传〔2013〕2号)，近年来我们先后开展了“夜店大联盟 点亮不夜城”、“秀美丹东夜更美”、“凉爽丹东”等多项主题促销活动，来引导商家推动我市夜经济发展。我市作为四个典型城市之一，在全省发展夜经济工作会议上做了典型发言。据对35家重点企业监测统计，2014年实现销售(营业)额6.1亿元，占全天比重37.1%。下一步我们将进一步提高认识，积极协调有关部门出台政策，进一步推动夜经济发展。', '我们制定了“134夜经济工程”即：一条夜经济集聚带：以合作区为龙头，打造沿鸭绿江沿岸集餐饮美食与休闲观光为一体的“夜经济集聚带”。三个夜经济集聚地：锦江山公园、元宝山公园、帽盔山公园。“四个夜经济集聚区”：一是七经街和新安步行街购物消费集聚区;二是韩朝风情街民族特色集聚区;三是女人街时尚消费集聚区。四是万达广场综合消费集聚区。', '振兴区将建设培育体育馆夜市、新一百特色美食街。近期重点推动了安东老街项目，现有夜市摊位52个，美食摊点63个，形成了以文艺表演、民俗行为演出等为一体的夜市。', '元宝区依托“鸭绿江夜旅游”项目，拟建设滨江中路旅游纪念品销售夜市;依托“夜游元宝山”项目，培育御景苑民俗风情一条街“夜旅游”消费夜市;打造八道解放后街餐饮休闲特色街。', '振安区将以欧尚广场开工建设为契机，将珍珠特色烧烤一条街向欧尚广场延伸，吸纳更多特色美食商户的进驻，打造一条品种多样的美食夜市。', '市旅发委：一是印制一批介绍我市夜市经济的宣传资料，在我市旅游网站上开辟夜市网页，介绍小吃、购物、风情、娱乐一条街;二是今年将推出一批特色鲜明的夜市线路，引导旅游企业开发夜市产品，将我市小吃、购物、游览等适合夜市游的线路重新串连起来，推出夜游鸭绿江等产品;三是组织游客参加夜游丹东活动，所有来丹旅游团队要增加夜游项目，在行程中安排夜游活动，引导游客走进丹东的夜市。', '市公安局各属地派出所将按照“属地管理”原则，认真研究制定本单位“夜市经济”安保方案，明确任务，落实责任，做到“夜市经济”延伸到哪里，安保工作就跟进到那里，确保辖区内不发生有影响案件。交警支队加强道路交通管理，在人群车辆密集区域增设警力，及时疏导，确保群众出行交通安全。刑侦支队严厉打击破坏“夜市经济”秩序犯罪活动，对“两抢一盗”、欺行霸市、敲诈勒索等现形案件侦破工作，增强人民群众“夜活动”安全感。治安管理支队强化社会治安整治，严厉打击“涉娼、涉赌”违法犯罪，坚决铲除“黑足疗”、“黑旅店”、“黑洗浴”等窝点，加强对旅馆业、公共娱乐服务场所、影视厅、演艺场所、酒吧、茶馆等场所的治安管理，确保公共安全。', '近期我们将重点做好以下几项工作：一是近期考察了沈阳兴顺夜市，目前正在积极与其接洽，力争今年开业，试点成功后逐步推进;二是今年旅游节期间，拟举办小吃评比大赛;三是择期到成都、杭州等地学习考察，进一步推动工作。']</t>
         </is>
